--- a/docs/test_programs.xlsx
+++ b/docs/test_programs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -113,6 +113,37 @@
         <scheme val="minor"/>
       </rPr>
       <t>ldc.i4.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instruction.</t>
+    </r>
+  </si>
+  <si>
+    <t>write_1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A simple program which pushes 1 on the stack using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ldc.i4.1</t>
     </r>
     <r>
       <rPr>
@@ -501,7 +532,7 @@
   <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -568,9 +599,15 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>

--- a/docs/test_programs.xlsx
+++ b/docs/test_programs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -144,6 +144,37 @@
         <scheme val="minor"/>
       </rPr>
       <t>ldc.i4.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instruction.</t>
+    </r>
+  </si>
+  <si>
+    <t>write_2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A simple program which pushes 2 on the stack using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ldc.i4.2</t>
     </r>
     <r>
       <rPr>
@@ -532,7 +563,7 @@
   <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -610,9 +641,15 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>

--- a/docs/test_programs.xlsx
+++ b/docs/test_programs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -175,6 +175,37 @@
         <scheme val="minor"/>
       </rPr>
       <t>ldc.i4.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instruction.</t>
+    </r>
+  </si>
+  <si>
+    <t>write_3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A simple program which pushes 3 on the stack using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ldc.i4.3</t>
     </r>
     <r>
       <rPr>
@@ -563,7 +594,7 @@
   <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -652,9 +683,15 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>

--- a/docs/test_programs.xlsx
+++ b/docs/test_programs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -99,8 +99,132 @@
     <t>write_0</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">A simple program which pushes 0 on the stack using </t>
+    <t>write_1</t>
+  </si>
+  <si>
+    <t>write_2</t>
+  </si>
+  <si>
+    <t>write_3</t>
+  </si>
+  <si>
+    <t>write_4</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A simple program which pushes 4 onto the stack using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ldc.i4.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instruction.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A simple program which pushes 3 onto the stack using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ldc.i4.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instruction.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A simple program which pushes 2 onto the stack using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ldc.i4.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instruction.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A simple program which pushes 1 onto the stack using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ldc.i4.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instruction.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A simple program which pushes 0 onto the stack using </t>
     </r>
     <r>
       <rPr>
@@ -113,99 +237,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>ldc.i4.0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> instruction.</t>
-    </r>
-  </si>
-  <si>
-    <t>write_1</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A simple program which pushes 1 on the stack using </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ldc.i4.1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> instruction.</t>
-    </r>
-  </si>
-  <si>
-    <t>write_2</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A simple program which pushes 2 on the stack using </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ldc.i4.2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> instruction.</t>
-    </r>
-  </si>
-  <si>
-    <t>write_3</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A simple program which pushes 3 on the stack using </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ldc.i4.3</t>
     </r>
     <r>
       <rPr>
@@ -594,7 +625,7 @@
   <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -657,7 +688,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -665,10 +696,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -676,10 +707,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -687,16 +718,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="9" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>

--- a/docs/test_programs.xlsx
+++ b/docs/test_programs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17668"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -237,6 +237,37 @@
         <scheme val="minor"/>
       </rPr>
       <t>ldc.i4.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instruction.</t>
+    </r>
+  </si>
+  <si>
+    <t>write_5</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A simple program which pushes 5 onto the stack using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ldc.i4.5</t>
     </r>
     <r>
       <rPr>
@@ -625,7 +656,7 @@
   <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -736,9 +767,15 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>

--- a/docs/test_programs.xlsx
+++ b/docs/test_programs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -36,9 +36,6 @@
     <t>read_key</t>
   </si>
   <si>
-    <t>The first program which is correct but does nothing.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">A simple program which calls </t>
     </r>
@@ -279,6 +276,64 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> instruction.</t>
+    </r>
+  </si>
+  <si>
+    <t>write_6</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A simple program which pushes 6 onto the stack using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ldc.i4.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instruction.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>first</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> program which is correct but does nothing.</t>
     </r>
   </si>
 </sst>
@@ -656,7 +711,7 @@
   <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -686,7 +741,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -697,7 +752,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -705,10 +760,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -716,10 +771,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -727,10 +782,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -738,10 +793,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -749,10 +804,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -760,10 +815,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -771,16 +826,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="3" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>

--- a/docs/test_programs.xlsx
+++ b/docs/test_programs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -334,6 +334,37 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> program which is correct but does nothing.</t>
+    </r>
+  </si>
+  <si>
+    <t>write_7</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A simple program which pushes 7 onto the stack using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ldc.i4.7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instruction.</t>
     </r>
   </si>
 </sst>
@@ -710,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -844,9 +875,15 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>

--- a/docs/test_programs.xlsx
+++ b/docs/test_programs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -354,6 +354,37 @@
         <scheme val="minor"/>
       </rPr>
       <t>ldc.i4.7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instruction.</t>
+    </r>
+  </si>
+  <si>
+    <t>write_8</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A simple program which pushes 8 onto the stack using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ldc.i4.8</t>
     </r>
     <r>
       <rPr>
@@ -742,7 +773,7 @@
   <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -886,9 +917,15 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>

--- a/docs/test_programs.xlsx
+++ b/docs/test_programs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -385,6 +385,37 @@
         <scheme val="minor"/>
       </rPr>
       <t>ldc.i4.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instruction.</t>
+    </r>
+  </si>
+  <si>
+    <t>write_m1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A simple program which pushes -1 onto the stack using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ldc.i4.m1</t>
     </r>
     <r>
       <rPr>
@@ -773,7 +804,7 @@
   <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -928,9 +959,15 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>

--- a/docs/test_programs.xlsx
+++ b/docs/test_programs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -424,6 +424,36 @@
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instruction.</t>
+    </r>
+  </si>
+  <si>
+    <t>write_m1_alias</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A simple program which pushes -1 onto the stack using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ldc.i4.M1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> instruction.</t>
@@ -804,7 +834,7 @@
   <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -970,9 +1000,15 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>

--- a/docs/test_programs.xlsx
+++ b/docs/test_programs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -454,6 +454,59 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instruction.</t>
+    </r>
+  </si>
+  <si>
+    <t>write_some_numbers_int32</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A simple program which writes some </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>int32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> numbers and uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ldc.i4.s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> instruction.</t>
@@ -834,7 +887,7 @@
   <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1011,9 +1064,15 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>

--- a/docs/test_programs.xlsx
+++ b/docs/test_programs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -463,6 +463,9 @@
     <t>write_some_numbers_int32</t>
   </si>
   <si>
+    <t>write_some_numbers_int8</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">A simple program which writes some </t>
     </r>
@@ -484,9 +487,60 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> numbers and uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ldc.i4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instruction.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A simple program which writes some </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">int8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">numbers and uses </t>
     </r>
     <r>
       <rPr>
@@ -887,7 +941,7 @@
   <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1068,16 +1122,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>

--- a/docs/test_programs.xlsx
+++ b/docs/test_programs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -553,6 +553,37 @@
         <scheme val="minor"/>
       </rPr>
       <t>ldc.i4.s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instruction.</t>
+    </r>
+  </si>
+  <si>
+    <t>add_some_numbers</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A simple program which writes some sums and uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>add</t>
     </r>
     <r>
       <rPr>
@@ -940,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1140,9 +1171,15 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>

--- a/docs/test_programs.xlsx
+++ b/docs/test_programs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -596,6 +596,12 @@
       </rPr>
       <t xml:space="preserve"> instruction.</t>
     </r>
+  </si>
+  <si>
+    <t>add_two_numbers</t>
+  </si>
+  <si>
+    <t>A simple program which gets two numbers from standard input and writes their sum to standard output.</t>
   </si>
 </sst>
 </file>
@@ -675,12 +681,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -688,6 +691,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -971,835 +980,841 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="47.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="91.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="47.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="91.5703125" style="3" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
     </row>
     <row r="45" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
     </row>
     <row r="61" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
     </row>
     <row r="62" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
     </row>
     <row r="63" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
     </row>
     <row r="64" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
     </row>
     <row r="65" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
     </row>
     <row r="66" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
     </row>
     <row r="67" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
     </row>
     <row r="68" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
     </row>
     <row r="69" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
     </row>
     <row r="70" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
     </row>
     <row r="71" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
     </row>
     <row r="72" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
     </row>
     <row r="73" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
     </row>
     <row r="74" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
     </row>
     <row r="75" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
     </row>
     <row r="76" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
     </row>
     <row r="77" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
     </row>
     <row r="78" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
     </row>
     <row r="79" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
     </row>
     <row r="80" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
     </row>
     <row r="81" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
     </row>
     <row r="82" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
     </row>
     <row r="83" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
     </row>
     <row r="84" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
     </row>
     <row r="85" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
     </row>
     <row r="86" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
     </row>
     <row r="87" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
     </row>
     <row r="88" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
     </row>
     <row r="89" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
     </row>
     <row r="90" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
     </row>
     <row r="91" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
     </row>
     <row r="92" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
     </row>
     <row r="93" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
     </row>
     <row r="94" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
     </row>
     <row r="95" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
     </row>
     <row r="96" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
     </row>
     <row r="97" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
     </row>
     <row r="98" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
     </row>
     <row r="99" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
     </row>
     <row r="100" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
     </row>
     <row r="101" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
     </row>
     <row r="102" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
     </row>
     <row r="103" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
     </row>
     <row r="104" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
     </row>
     <row r="105" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
     </row>
     <row r="106" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
     </row>
     <row r="107" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
     </row>
     <row r="108" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
     </row>
     <row r="109" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
     </row>
     <row r="110" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
     </row>
     <row r="111" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
     </row>
     <row r="112" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
     </row>
     <row r="113" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
     </row>
     <row r="114" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
     </row>
     <row r="115" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
     </row>
     <row r="116" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
     </row>
     <row r="117" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
     </row>
     <row r="118" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
     </row>
     <row r="119" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
     </row>
     <row r="120" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
     </row>
     <row r="121" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
     </row>
     <row r="122" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
     </row>
     <row r="123" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="3"/>
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
     </row>
     <row r="124" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
     </row>
     <row r="125" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
     </row>
     <row r="126" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="3"/>
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
     </row>
     <row r="127" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
     </row>
     <row r="128" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
     </row>
     <row r="129" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
     </row>
     <row r="130" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
     </row>
     <row r="131" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="3"/>
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
     </row>
     <row r="132" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="3"/>
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
     </row>
     <row r="133" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="3"/>
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
     </row>
     <row r="134" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="3"/>
+      <c r="A134" s="2"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
     </row>
     <row r="135" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="3"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
     </row>
     <row r="136" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="3"/>
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
     </row>
     <row r="137" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="3"/>
-      <c r="B137" s="3"/>
-      <c r="C137" s="3"/>
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
     </row>
     <row r="138" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
+      <c r="A138" s="2"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
     </row>
     <row r="139" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
+      <c r="A139" s="2"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
     </row>
     <row r="140" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
-      <c r="C140" s="3"/>
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
     </row>
     <row r="141" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
-      <c r="C141" s="3"/>
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
     </row>
     <row r="142" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/test_programs.xlsx
+++ b/docs/test_programs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17668"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17870"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -602,6 +602,12 @@
   </si>
   <si>
     <t>A simple program which gets two numbers from standard input and writes their sum to standard output.</t>
+  </si>
+  <si>
+    <t>duplicate</t>
+  </si>
+  <si>
+    <t>A program which duplicates integer from standard input.</t>
   </si>
 </sst>
 </file>
@@ -981,7 +987,7 @@
   <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1202,9 +1208,15 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>

--- a/docs/test_programs.xlsx
+++ b/docs/test_programs.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17870"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -608,6 +608,37 @@
   </si>
   <si>
     <t>A program which duplicates integer from standard input.</t>
+  </si>
+  <si>
+    <t>unconditional_branch</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A program which uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">br </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>instruction.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -987,7 +1018,7 @@
   <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1219,9 +1250,15 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>

--- a/docs/test_programs.xlsx
+++ b/docs/test_programs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -638,6 +638,37 @@
         <scheme val="minor"/>
       </rPr>
       <t>instruction.</t>
+    </r>
+  </si>
+  <si>
+    <t>branch_if_true</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A program which uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>brtrue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instruction.</t>
     </r>
   </si>
 </sst>
@@ -1018,7 +1049,7 @@
   <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1261,9 +1292,15 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>

--- a/docs/test_programs.xlsx
+++ b/docs/test_programs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>ID</t>
   </si>
@@ -658,6 +658,37 @@
         <scheme val="minor"/>
       </rPr>
       <t>brtrue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instruction.</t>
+    </r>
+  </si>
+  <si>
+    <t>branch_if_false</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A program which uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>brfalse</t>
     </r>
     <r>
       <rPr>
@@ -1049,7 +1080,7 @@
   <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1303,9 +1334,15 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="24" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>

--- a/docs/test_programs.xlsx
+++ b/docs/test_programs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -689,6 +689,37 @@
         <scheme val="minor"/>
       </rPr>
       <t>brfalse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instruction.</t>
+    </r>
+  </si>
+  <si>
+    <t>unconditional_branch_short</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A program which uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>br.s</t>
     </r>
     <r>
       <rPr>
@@ -1079,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1345,9 +1376,15 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
